--- a/result/output_metadiscourse_analysis_expanded.xlsx
+++ b/result/output_metadiscourse_analysis_expanded.xlsx
@@ -517,7 +517,7 @@
     "expression": "This thesis aims to",
     "confidence": 5,
     "note": "",
-    "justification": "This phrase is a frame marker that announces the goal of the thesis, thus organizing the discourse."
+    "justification": "The phrase 'This thesis aims to' is a frame marker that announces the goal of the thesis, thus organizing the discourse."
   }</t>
         </is>
       </c>
@@ -532,7 +532,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>This phrase is a frame marker that announces the goal of the thesis, thus organizing the discourse.</t>
+          <t>The phrase 'This thesis aims to' is a frame marker that announces the goal of the thesis, thus organizing the discourse.</t>
         </is>
       </c>
     </row>
@@ -565,26 +565,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[
-  {
+          <t>{
     "expression": "Specifically,",
     "confidence": 5,
     "note": "",
-    "justification": "The expression 'Specifically,' is used to organize the discourse and guide the reader's attention to a particular aspect of the study."
+    "justification": "The term 'specifically' is used to focus the reader's attention on a particular aspect of the study, thus organizing the discourse."
   },
   {
     "expression": "demonstrates",
     "confidence": 4,
     "note": "",
-    "justification": "The term 'demonstrates' is used as a booster to emphasize the certainty of the findings of the study."
+    "justification": "The term 'demonstrates' is used to assert a claim with confidence, positioning the writer as an authority on the subject."
   },
   {
     "expression": "thus",
     "confidence": 5,
     "note": "",
-    "justification": "The term 'thus' is used as a logical connective to link the findings of the study to the concept of a 'repertoire of registers'."
-  }
-]</t>
+    "justification": "The term 'thus' is used to indicate a logical connection or consequence, helping to organize the discourse."
+  }</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -598,7 +596,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The expression 'Specifically,' is used to organize the discourse and guide the reader's attention to a particular aspect of the study.</t>
+          <t>The term 'specifically' is used to focus the reader's attention on a particular aspect of the study, thus organizing the discourse.</t>
         </is>
       </c>
     </row>
@@ -631,26 +629,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[
-  {
+          <t>{
     "expression": "Specifically,",
     "confidence": 5,
     "note": "",
-    "justification": "The expression 'Specifically,' is used to organize the discourse and guide the reader's attention to a particular aspect of the study."
+    "justification": "The term 'specifically' is used to focus the reader's attention on a particular aspect of the study, thus organizing the discourse."
   },
   {
     "expression": "demonstrates",
     "confidence": 4,
     "note": "",
-    "justification": "The term 'demonstrates' is used as a booster to emphasize the certainty of the findings of the study."
+    "justification": "The term 'demonstrates' is used to assert a claim with confidence, positioning the writer as an authority on the subject."
   },
   {
     "expression": "thus",
     "confidence": 5,
     "note": "",
-    "justification": "The term 'thus' is used as a logical connective to link the findings of the study to the concept of a 'repertoire of registers'."
-  }
-]</t>
+    "justification": "The term 'thus' is used to indicate a logical connection or consequence, helping to organize the discourse."
+  }</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -664,7 +660,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>The term 'demonstrates' is used as a booster to emphasize the certainty of the findings of the study.</t>
+          <t>The term 'demonstrates' is used to assert a claim with confidence, positioning the writer as an authority on the subject.</t>
         </is>
       </c>
     </row>
@@ -697,26 +693,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[
-  {
+          <t>{
     "expression": "Specifically,",
     "confidence": 5,
     "note": "",
-    "justification": "The expression 'Specifically,' is used to organize the discourse and guide the reader's attention to a particular aspect of the study."
+    "justification": "The term 'specifically' is used to focus the reader's attention on a particular aspect of the study, thus organizing the discourse."
   },
   {
     "expression": "demonstrates",
     "confidence": 4,
     "note": "",
-    "justification": "The term 'demonstrates' is used as a booster to emphasize the certainty of the findings of the study."
+    "justification": "The term 'demonstrates' is used to assert a claim with confidence, positioning the writer as an authority on the subject."
   },
   {
     "expression": "thus",
     "confidence": 5,
     "note": "",
-    "justification": "The term 'thus' is used as a logical connective to link the findings of the study to the concept of a 'repertoire of registers'."
-  }
-]</t>
+    "justification": "The term 'thus' is used to indicate a logical connection or consequence, helping to organize the discourse."
+  }</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -730,7 +724,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>The term 'thus' is used as a logical connective to link the findings of the study to the concept of a 'repertoire of registers'.</t>
+          <t>The term 'thus' is used to indicate a logical connection or consequence, helping to organize the discourse.</t>
         </is>
       </c>
     </row>
